--- a/data_final/dictionaries/S_Dict.xlsx
+++ b/data_final/dictionaries/S_Dict.xlsx
@@ -196,6 +196,9 @@
     <t xml:space="preserve">BE01</t>
   </si>
   <si>
+    <t xml:space="preserve">Float</t>
+  </si>
+  <si>
     <t xml:space="preserve">1980, 1990, and 2000 data from respective decennial censuses downloaded from Social Explorer at county level and aggregated upwards.</t>
   </si>
   <si>
@@ -218,9 +221,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Float</t>
   </si>
   <si>
     <t xml:space="preserve">BlackP</t>
@@ -1110,13 +1110,13 @@
     <t xml:space="preserve">Mean yearly Hepatitis C cases in people over 75 years of age from 2013-2016</t>
   </si>
   <si>
-    <t xml:space="preserve">blkHcv</t>
+    <t xml:space="preserve">BlkHcv</t>
   </si>
   <si>
     <t xml:space="preserve">Mean yearly Hepatitis C cases in populations identified as non-hispanic Black alone across 2013-2016</t>
   </si>
   <si>
-    <t xml:space="preserve">nonBlkHcv</t>
+    <t xml:space="preserve">NonBlkHcv</t>
   </si>
   <si>
     <t xml:space="preserve">Mean yearly Hepatitis C cases in populations non-Black other race/ethnicity populations 2013-2016</t>
@@ -2129,8 +2129,8 @@
   </sheetPr>
   <dimension ref="A1:R232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K35" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N49" activeCellId="0" sqref="N49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L87" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N106" activeCellId="0" sqref="N106:N107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2545,14 +2545,14 @@
         <v>57</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>3064381</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2563,13 +2563,13 @@
         <v>14</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>43</v>
@@ -2578,7 +2578,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>38</v>
@@ -2612,13 +2612,13 @@
         <v>14</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>35</v>
@@ -2630,7 +2630,7 @@
         <v>37</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>76.03</v>
@@ -2669,7 +2669,7 @@
         <v>68</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>35</v>
@@ -2681,7 +2681,7 @@
         <v>37</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>3.7</v>
@@ -2720,7 +2720,7 @@
         <v>70</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>35</v>
@@ -2732,7 +2732,7 @@
         <v>37</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>1.3</v>
@@ -2771,7 +2771,7 @@
         <v>72</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>35</v>
@@ -2783,7 +2783,7 @@
         <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O14" s="6" t="n">
         <v>8.33</v>
@@ -2822,7 +2822,7 @@
         <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>35</v>
@@ -2834,7 +2834,7 @@
         <v>37</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O15" s="6" t="n">
         <v>0.66</v>
@@ -2873,7 +2873,7 @@
         <v>76</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>35</v>
@@ -2885,7 +2885,7 @@
         <v>37</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>9.98</v>
@@ -2924,7 +2924,7 @@
         <v>78</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>35</v>
@@ -2936,7 +2936,7 @@
         <v>37</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>12.5</v>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O18" s="6" t="n">
         <v>78</v>
@@ -3033,7 +3033,7 @@
         <v>37</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O19" s="6" t="n">
         <v>12.74</v>
@@ -3084,7 +3084,7 @@
         <v>37</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O20" s="6" t="n">
         <v>59.43</v>
@@ -3135,7 +3135,7 @@
         <v>37</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O21" s="6" t="n">
         <v>14.72</v>
@@ -3186,7 +3186,7 @@
         <v>37</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>453008</v>
@@ -3237,7 +3237,7 @@
         <v>37</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O23" s="6" t="n">
         <v>909873</v>
@@ -3288,7 +3288,7 @@
         <v>37</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O24" s="6" t="n">
         <v>444352</v>
@@ -3339,7 +3339,7 @@
         <v>37</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>485160</v>
@@ -3390,7 +3390,7 @@
         <v>37</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O26" s="6" t="n">
         <v>2972063</v>
@@ -3426,7 +3426,7 @@
         <v>37</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O27" s="1" t="n">
         <v>2359934</v>
@@ -3471,7 +3471,7 @@
         <v>37</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O28" s="6" t="n">
         <v>467768</v>
@@ -3516,7 +3516,7 @@
         <v>37</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O29" s="6" t="n">
         <v>476486</v>
@@ -3567,7 +3567,7 @@
         <v>37</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O30" s="6" t="n">
         <v>487173</v>
@@ -3618,7 +3618,7 @@
         <v>37</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O31" s="6" t="n">
         <v>454466</v>
@@ -3669,7 +3669,7 @@
         <v>37</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O32" s="6" t="n">
         <v>1073499</v>
@@ -3708,7 +3708,7 @@
         <v>37</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O33" s="6" t="n">
         <v>5661461</v>
@@ -3754,7 +3754,7 @@
         <v>37</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O34" s="6" t="n">
         <v>4587962</v>
@@ -3796,7 +3796,7 @@
         <v>37</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O35" s="6" t="n">
         <v>12.7</v>
@@ -3847,7 +3847,7 @@
         <v>37</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O36" s="6" t="n">
         <v>8.89</v>
@@ -3886,7 +3886,7 @@
         <v>51</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O37" s="6" t="n">
         <v>9.58</v>
@@ -3920,7 +3920,7 @@
         <v>45</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O38" s="6" t="n">
         <v>3.35</v>
@@ -3954,7 +3954,7 @@
         <v>45</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O39" s="6" t="n">
         <v>25.61</v>
@@ -4111,7 +4111,7 @@
         <v>150</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O43" s="6" t="n">
         <v>5.3</v>
@@ -4162,7 +4162,7 @@
         <v>150</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O44" s="6" t="n">
         <v>11.5</v>
@@ -4270,7 +4270,7 @@
         <v>162</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O47" s="6" t="n">
         <v>5.53</v>
@@ -4308,7 +4308,7 @@
         <v>162</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O48" s="6" t="n">
         <v>48.09</v>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O49" s="6" t="n">
         <v>0.46</v>
@@ -4369,7 +4369,7 @@
         <v>170</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>43</v>
@@ -4378,10 +4378,10 @@
         <v>44</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O50" s="6" t="n">
         <v>8.44</v>
@@ -4405,7 +4405,7 @@
         <v>173</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>43</v>
@@ -4414,10 +4414,10 @@
         <v>44</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O51" s="6" t="n">
         <v>20</v>
@@ -4441,7 +4441,7 @@
         <v>175</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>43</v>
@@ -4450,10 +4450,10 @@
         <v>44</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O52" s="6" t="n">
         <v>13.13</v>
@@ -4477,7 +4477,7 @@
         <v>177</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>43</v>
@@ -4486,10 +4486,10 @@
         <v>44</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O53" s="6" t="n">
         <v>11.7</v>
@@ -4559,7 +4559,7 @@
         <v>181</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O55" s="6" t="n">
         <v>42.96</v>
@@ -4593,7 +4593,7 @@
         <v>190</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O56" s="6" t="n">
         <v>8.79</v>
@@ -4642,7 +4642,7 @@
         <v>57</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O57" s="6" t="n">
         <v>8.61</v>
@@ -4678,7 +4678,7 @@
         <v>57</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O58" s="6" t="n">
         <v>6.39</v>
@@ -4712,7 +4712,7 @@
         <v>57</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O59" s="6" t="n">
         <v>19.99</v>
@@ -4746,7 +4746,7 @@
         <v>57</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O60" s="6" t="n">
         <v>37.28</v>
@@ -4780,7 +4780,7 @@
         <v>57</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O61" s="6" t="n">
         <v>46.11</v>
@@ -4814,7 +4814,7 @@
         <v>207</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O62" s="6" t="n">
         <v>66452.74</v>
@@ -4886,7 +4886,7 @@
         <v>207</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O64" s="6" t="n">
         <v>0.01</v>
@@ -4922,7 +4922,7 @@
         <v>207</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O65" s="6" t="n">
         <v>0</v>
@@ -4958,7 +4958,7 @@
         <v>218</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O66" s="6" t="n">
         <v>0.42</v>
@@ -4996,7 +4996,7 @@
         <v>218</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O67" s="6" t="n">
         <v>0.71</v>
@@ -5034,7 +5034,7 @@
         <v>218</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O68" s="6" t="n">
         <v>0.03</v>
@@ -5072,7 +5072,7 @@
         <v>218</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O69" s="6" t="n">
         <v>0.28</v>
@@ -5110,7 +5110,7 @@
         <v>218</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O70" s="6" t="n">
         <v>0.71</v>
@@ -5148,7 +5148,7 @@
         <v>218</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O71" s="6" t="n">
         <v>0.19</v>
@@ -5186,7 +5186,7 @@
         <v>218</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O72" s="6" t="n">
         <v>0.33</v>
@@ -5224,7 +5224,7 @@
         <v>218</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O73" s="6" t="n">
         <v>0.75</v>
@@ -5262,7 +5262,7 @@
         <v>218</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O74" s="6" t="n">
         <v>0.04</v>
@@ -5300,7 +5300,7 @@
         <v>242</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O75" s="6" t="n">
         <v>0.06</v>
@@ -5335,7 +5335,7 @@
         <v>248</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O76" s="6" t="n">
         <v>39296898972.47</v>
@@ -5369,7 +5369,7 @@
         <v>248</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O77" s="6" t="n">
         <v>4486028684.18</v>
@@ -5403,7 +5403,7 @@
         <v>248</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O78" s="6" t="n">
         <v>8.76</v>
@@ -5589,7 +5589,7 @@
         <v>256</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O83" s="6" t="n">
         <v>6.9</v>
@@ -5627,7 +5627,7 @@
         <v>256</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O84" s="6" t="n">
         <v>29.15</v>
@@ -5665,7 +5665,7 @@
         <v>256</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O85" s="6" t="n">
         <v>11.68</v>
@@ -5703,7 +5703,7 @@
         <v>256</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O86" s="6" t="n">
         <v>0.96</v>
@@ -5741,7 +5741,7 @@
         <v>256</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O87" s="6" t="n">
         <v>0.68</v>
@@ -5779,7 +5779,7 @@
         <v>256</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O88" s="6" t="n">
         <v>0.91</v>
@@ -5855,7 +5855,7 @@
         <v>284</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O90" s="6" t="n">
         <v>10.65</v>
@@ -5893,7 +5893,7 @@
         <v>284</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O91" s="6" t="n">
         <v>0.93</v>
@@ -5969,7 +5969,7 @@
         <v>295</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O93" s="6" t="n">
         <v>13.13</v>
@@ -6007,7 +6007,7 @@
         <v>295</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O94" s="6" t="n">
         <v>0.92</v>
@@ -6083,7 +6083,7 @@
         <v>304</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O96" s="6" t="n">
         <v>5.97</v>
@@ -6121,7 +6121,7 @@
         <v>304</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O97" s="6" t="n">
         <v>0.96</v>
@@ -6197,7 +6197,7 @@
         <v>314</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O99" s="6" t="n">
         <v>11.42</v>
@@ -6235,7 +6235,7 @@
         <v>314</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O100" s="6" t="n">
         <v>0.92</v>
@@ -6311,7 +6311,7 @@
         <v>322</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O102" s="6" t="n">
         <v>9.96</v>
@@ -6349,7 +6349,7 @@
         <v>322</v>
       </c>
       <c r="N103" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O103" s="6" t="n">
         <v>0.94</v>
@@ -6425,7 +6425,7 @@
         <v>332</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O105" s="6" t="n">
         <v>24.18</v>
@@ -6463,7 +6463,7 @@
         <v>332</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O106" s="6" t="n">
         <v>0.75</v>
@@ -6501,7 +6501,7 @@
         <v>343</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O107" s="6" t="n">
         <v>9691</v>
@@ -6539,7 +6539,7 @@
         <v>350</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O108" s="6" t="n">
         <v>54200</v>
@@ -6576,7 +6576,7 @@
         <v>350</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O109" s="6" t="n">
         <v>37500</v>
@@ -6613,7 +6613,7 @@
         <v>350</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O110" s="6" t="n">
         <v>16900</v>
@@ -6650,7 +6650,7 @@
         <v>350</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O111" s="6" t="n">
         <v>9400</v>
@@ -6687,7 +6687,7 @@
         <v>350</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O112" s="6" t="n">
         <v>43300</v>
@@ -6724,7 +6724,7 @@
         <v>350</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O113" s="6" t="n">
         <v>1600</v>
@@ -6761,7 +6761,7 @@
         <v>350</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O114" s="6" t="n">
         <v>5600</v>
@@ -6798,7 +6798,7 @@
         <v>350</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O115" s="6" t="n">
         <v>49000</v>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="M166" s="6"/>
       <c r="N166" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O166" s="6" t="n">
         <v>586.4</v>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="M167" s="6"/>
       <c r="N167" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O167" s="6" t="n">
         <v>409.2</v>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="M168" s="6"/>
       <c r="N168" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O168" s="6" t="n">
         <v>177.2</v>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="M169" s="6"/>
       <c r="N169" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O169" s="6" t="n">
         <v>23.6</v>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="M170" s="6"/>
       <c r="N170" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O170" s="6" t="n">
         <v>24.4</v>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="M171" s="6"/>
       <c r="N171" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O171" s="6" t="n">
         <v>42.2</v>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="M172" s="6"/>
       <c r="N172" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O172" s="6" t="n">
         <v>34.4</v>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="M173" s="6"/>
       <c r="N173" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O173" s="6" t="n">
         <v>26.6</v>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="M174" s="6"/>
       <c r="N174" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O174" s="6" t="n">
         <v>510.8</v>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="M175" s="6"/>
       <c r="N175" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O175" s="6" t="n">
         <v>27</v>
@@ -9078,7 +9078,7 @@
         <v>498</v>
       </c>
       <c r="N178" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O178" s="6" t="n">
         <v>39.5</v>
@@ -9109,7 +9109,7 @@
         <v>498</v>
       </c>
       <c r="N179" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O179" s="6" t="n">
         <v>4.15</v>
@@ -9143,7 +9143,7 @@
         <v>503</v>
       </c>
       <c r="N180" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O180" s="6" t="n">
         <v>13.3</v>
@@ -9177,7 +9177,7 @@
         <v>503</v>
       </c>
       <c r="N181" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O181" s="6" t="n">
         <v>14.7</v>
@@ -9211,7 +9211,7 @@
         <v>503</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O182" s="6" t="n">
         <v>14.5</v>
@@ -9245,7 +9245,7 @@
         <v>503</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O183" s="6" t="n">
         <v>15.2</v>
@@ -9279,7 +9279,7 @@
         <v>503</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O184" s="6" t="n">
         <v>35.4</v>
@@ -9313,7 +9313,7 @@
         <v>503</v>
       </c>
       <c r="N185" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O185" s="6" t="n">
         <v>15.8</v>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="M186" s="6"/>
       <c r="N186" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O186" s="6" t="n">
         <v>22</v>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="M187" s="6"/>
       <c r="N187" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O187" s="6" t="n">
         <v>20.58</v>
@@ -9411,7 +9411,7 @@
         <v>524</v>
       </c>
       <c r="N188" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O188" s="6" t="n">
         <v>1</v>
@@ -9446,7 +9446,7 @@
         <v>524</v>
       </c>
       <c r="N189" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O189" s="6" t="n">
         <v>1</v>
@@ -9481,7 +9481,7 @@
         <v>524</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O190" s="6" t="n">
         <v>1</v>
@@ -9516,7 +9516,7 @@
         <v>524</v>
       </c>
       <c r="N191" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O191" s="6" t="n">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>524</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O192" s="6" t="n">
         <v>1</v>
@@ -9831,7 +9831,7 @@
         <v>548</v>
       </c>
       <c r="N200" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O200" s="6" t="n">
         <v>1</v>
@@ -9866,7 +9866,7 @@
         <v>548</v>
       </c>
       <c r="N201" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O201" s="6" t="n">
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>559</v>
       </c>
       <c r="N205" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O205" s="6" t="n">
         <v>1</v>
@@ -10029,7 +10029,7 @@
         <v>559</v>
       </c>
       <c r="N206" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O206" s="6" t="n">
         <v>1</v>
@@ -10061,7 +10061,7 @@
         <v>559</v>
       </c>
       <c r="N207" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O207" s="6" t="n">
         <v>0</v>

--- a/data_final/dictionaries/S_Dict.xlsx
+++ b/data_final/dictionaries/S_Dict.xlsx
@@ -1614,7 +1614,7 @@
     <t xml:space="preserve">Fraction of year that state has a “modern system” operational and users could access (as determined by Horowitz et al., 2018).</t>
   </si>
   <si>
-    <t xml:space="preserve">MsAsPdmpFr</t>
+    <t xml:space="preserve">MsAcPdmpFr</t>
   </si>
   <si>
     <t xml:space="preserve">Fraction of year that state has any legislation requiring Prescribers to access PDMP before prescribing (as interpreted by PDAPS) enacted.</t>
@@ -2129,8 +2129,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H192" activeCellId="0" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data_final/dictionaries/S_Dict.xlsx
+++ b/data_final/dictionaries/S_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z227"/>
+  <dimension ref="A1:Z226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,73 +557,65 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HEROP_ID</t>
+          <t>TotTracts</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>HEROP_ID</t>
+          <t>Total Census Tract Count</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>A derived unique id corresponding to the relevant geographic unit.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>Total number of census tracts within the state.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Healthy Regions &amp; Policies Lab, UIUC</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>Tiger/Line 2018</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Tiger/Line 2018 Shapefiles</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>050US01001-2018</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID + “-” + Year</t>
+          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
       </c>
     </row>
@@ -633,70 +625,63 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GEOID</t>
+          <t>AreaSqMi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>GEOID</t>
+          <t>Land Area (Square Miles)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Unique identifer for the geography unit to which this value should be attached</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>Land area of geography in sq miles</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018; Tiger/Line 2010</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>InfoGroup, 2018</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36061</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
+          <t>66452.74</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -705,65 +690,77 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TotTracts</t>
+          <t>HEROP_ID</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Total Census Tract Count</t>
+          <t>HEROP_ID</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Total number of census tracts within the state.</t>
+          <t>A derived unique id corresponding to the relevant geographic unit.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Tiger/Line 2018 Shapefiles</t>
-        </is>
-      </c>
+          <t>Healthy Regions &amp; Policies Lab, UIUC</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1458</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
+          <t>050US01001-2018</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+          <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID</t>
         </is>
       </c>
     </row>
@@ -773,63 +770,74 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AreaSqMi</t>
+          <t>GEOID</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Land Area (Square Miles)</t>
+          <t>GEOID</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Land area of geography in sq miles</t>
+          <t>Unique identifer for the geography unit to which this value should be attached</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
-        </is>
-      </c>
+          <t>Tiger/Line 2018; Tiger/Line 2010</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>66452.74</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
-        </is>
-      </c>
+          <t>36061</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -851,17 +859,17 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>StateArea</t>
+          <t>ParkArea</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>State Area</t>
+          <t>Park Area</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Area (in square meters) of state</t>
+          <t>Area (in square meters) of park or green space in a state).</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -871,12 +879,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018</t>
+          <t>OSM</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018 Shapefiles</t>
+          <t>OpenStreetMap</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -886,7 +894,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>4486028684.18</t>
+          <t>39296898972.47</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -895,90 +903,62 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Social</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Geography</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TotPop</t>
+          <t>StateArea</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Total Population</t>
+          <t>State Area</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Total population</t>
+          <t>Area (in square meters) of state</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Park_Cover.md</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>Tiger/Line 2018</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1632480</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>For more information about how these data have been used in homelessness and housing stability research, please refer to https://www.census.gov/newsroom/press-releases/2020/special-operations-homelessness.html or https://www.americanprogress.org/issues/poverty/reports/2020/10/05/491122/count-people-where-they-are/.</t>
-        </is>
-      </c>
+          <t>4486028684.18</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1019,17 +999,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Age18_64</t>
+          <t>TotPop</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Population: Age 18-64</t>
+          <t>Total Population</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Total adult population under age 65</t>
+          <t>Total population</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1054,7 +1034,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1139347</t>
+          <t>1632480</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1062,7 +1042,11 @@
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>For more information about how these data have been used in homelessness and housing stability research, please refer to https://www.census.gov/newsroom/press-releases/2020/special-operations-homelessness.html or https://www.americanprogress.org/issues/poverty/reports/2020/10/05/491122/count-people-where-they-are/.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1103,17 +1087,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Age0_4</t>
+          <t>Age18_64</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Population: Age 0-4</t>
+          <t>Population: Age 18-64</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Total population between age 0-4</t>
+          <t>Total adult population under age 65</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1138,7 +1122,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>79897</t>
+          <t>1139347</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1187,17 +1171,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Age5_14</t>
+          <t>Age0_4</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Population: Age 5-14</t>
+          <t>Population: Age 0-4</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Total population between age 5-14</t>
+          <t>Total population between age 0-4</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1222,7 +1206,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>122034</t>
+          <t>79897</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1271,17 +1255,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Age15_19</t>
+          <t>Age5_14</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Population: Age 15-19</t>
+          <t>Population: Age 5-14</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Total population between age 15-19</t>
+          <t>Total population between age 5-14</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1306,7 +1290,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>68706</t>
+          <t>122034</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1355,17 +1339,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Age20_24</t>
+          <t>Age15_19</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Population: Age 20-24</t>
+          <t>Population: Age 15-19</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Total population between age 20-24</t>
+          <t>Total population between age 15-19</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1390,7 +1374,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>114772</t>
+          <t>68706</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1439,17 +1423,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Age15_44</t>
+          <t>Age20_24</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Population: Age 15-44</t>
+          <t>Population: Age 20-24</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Total population between age 15-44</t>
+          <t>Total population between age 20-24</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1474,7 +1458,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>784568</t>
+          <t>114772</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1523,17 +1507,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Age55_59</t>
+          <t>Age15_44</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Population: Age 55-59</t>
+          <t>Population: Age 15-44</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Total population between age 55-59</t>
+          <t>Total population between age 15-44</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1558,7 +1542,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>94082</t>
+          <t>784568</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1607,17 +1591,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Age60_64</t>
+          <t>Age55_59</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Population: Age 60-64</t>
+          <t>Population: Age 55-59</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Total population between age 60-64</t>
+          <t>Total population between age 55-59</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1642,7 +1626,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>90711</t>
+          <t>94082</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1691,17 +1675,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>AgeOv65</t>
+          <t>Age60_64</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Population: Age 65+</t>
+          <t>Population: Age 60-64</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Total population at or over age 65</t>
+          <t>Total population between age 60-64</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1726,7 +1710,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>257362</t>
+          <t>90711</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1775,17 +1759,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Age15_24P</t>
+          <t>AgeOv65</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>% Population: Age 15-24</t>
+          <t>Population: Age 65+</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Percentage of population between ages of 15 &amp; 24</t>
+          <t>Total population at or over age 65</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1805,12 +1789,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>257362</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1859,17 +1843,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Und45P</t>
+          <t>Age15_24P</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>% Population: Age under 45</t>
+          <t>% Population: Age 15-24</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Percentage of population below 45 years of age</t>
+          <t>Percentage of population between ages of 15 &amp; 24</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1894,7 +1878,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>60.43</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1943,17 +1927,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Ovr65P</t>
+          <t>Und45P</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>% Population: Age 65+</t>
+          <t>% Population: Age under 45</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Percentage of population over 65</t>
+          <t xml:space="preserve">	Percentage of population below 45 years of age</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1978,7 +1962,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>15.77</t>
+          <t>60.43</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2027,17 +2011,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ChildrenP</t>
+          <t>Ovr65P</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Children %</t>
+          <t>% Population: Age 65+</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Percentage of population under age 18</t>
+          <t>Percentage of population over 65</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2062,7 +2046,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2078,7 +2062,11 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>x</t>
@@ -2100,20 +2088,24 @@
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Age45_49</t>
+          <t>ChildrenP</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Population: Age 45-49</t>
+          <t>Children %</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Total population between age 45-49</t>
+          <t>Percentage of population under age 18</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2123,30 +2115,30 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>467768</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2179,17 +2171,17 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Age50_54</t>
+          <t>Age45_49</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Population: Age 50-54</t>
+          <t>Population: Age 45-49</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Total population between age 50-54</t>
+          <t>Total population between age 45-49</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2209,12 +2201,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>476486</t>
+          <t>467768</t>
         </is>
       </c>
       <c r="R22" t="inlineStr"/>
@@ -2231,8 +2223,16 @@
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>x</t>
@@ -2247,17 +2247,17 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>AgeOv18</t>
+          <t>Age50_54</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Population: Age 18+</t>
+          <t>Population: Age 50-54</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Total population at or over age 18</t>
+          <t>Total population between age 50-54</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; 2010 Decennial Census</t>
+          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2282,11 +2282,15 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>5661461</t>
+          <t>476486</t>
         </is>
       </c>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2294,30 +2298,34 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Age45_54</t>
+          <t>AgeOv18</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Population: Age 45-54</t>
+          <t>Population: Age 18+</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Total population between age 45-54</t>
+          <t>Total population at or over age 18</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2327,34 +2335,26 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; 2010 Decennial Census</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function, with county subdivisions as the underlying population weights.</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>The 1980 Census data does not allow for disaggregation into Age45_49 and Age50_54 variables, so this variable is used instead. The data itself is from its respective decennial census as downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using Longitudinal Tract Database crosswalk files. For more on the crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm</t>
-        </is>
-      </c>
+          <t>5661461</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2362,45 +2362,45 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TotPopHh</t>
+          <t>Age45_54</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Total Population in Households</t>
+          <t>Population: Age 45-54</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Total number of people in households</t>
+          <t>Total population between age 45-54</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>IPUMS NHGIS</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2410,11 +2410,19 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>7151776</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function, with county subdivisions as the underlying population weights.</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>The 1980 Census data does not allow for disaggregation into Age45_49 and Age50_54 variables, so this variable is used instead. The data itself is from its respective decennial census as downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using Longitudinal Tract Database crosswalk files. For more on the crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2435,17 +2443,17 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>NonRelFhhP</t>
+          <t>TotPopHh</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Family Households</t>
+          <t>Total Population in Households</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Percent of people living in family households that are not related to family</t>
+          <t>Total number of people in households</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2465,12 +2473,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>7151776</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
@@ -2495,17 +2503,17 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>NonRelNfhhP</t>
+          <t>NonRelFhhP</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Non-family Households</t>
+          <t>% Nonrelatives in Family Households</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Percent of people living in non-family households that are not related</t>
+          <t>Percent of people living in family households that are not related to family</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2530,7 +2538,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>25.61</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
@@ -2555,22 +2563,22 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>NonRelNfhhP</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>% Nonrelatives in Non-family Households</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Estimated count of working population</t>
+          <t>Percent of people living in non-family households that are not related</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2585,12 +2593,12 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>3513856</t>
+          <t>25.61</t>
         </is>
       </c>
       <c r="R28" t="inlineStr"/>
@@ -5405,7 +5413,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driving Time (min) to nearest Pharmacy </t>
+          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5813,7 +5821,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Driving Time to nearest Hospital</t>
+          <t>Avg. Driving Time to nearest Hospital</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6799,17 +6807,17 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>ParkArea</t>
+          <t>Cover</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Park Area</t>
+          <t>Greenspace Coverage</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Area (in square meters) of park or green space in a state).</t>
+          <t>Percent of state covered by park or green space</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6834,7 +6842,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>39296898972.47</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="R89" t="inlineStr"/>
@@ -6843,48 +6851,68 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Environment</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Cover</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Greenspace Coverage</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Percent of state covered by park or green space</t>
+          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Park_Cover.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>OSM</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>OpenStreetMap</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -6894,11 +6922,19 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
+          <t>16.6</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6939,17 +6975,17 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
+          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6974,7 +7010,7 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -6994,21 +7030,9 @@
           <t>Economic</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>x</t>
@@ -7020,24 +7044,20 @@
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
+          <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7047,34 +7067,26 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
-        </is>
-      </c>
+          <t>34148</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7099,17 +7111,17 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7134,7 +7146,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>34148</t>
+          <t>36888</t>
         </is>
       </c>
       <c r="R93" t="inlineStr"/>
@@ -7149,11 +7161,7 @@
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
           <t>x</t>
@@ -7163,46 +7171,54 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>ForDqP</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Estimated percent of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>HUD, 2018</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>36888</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7223,17 +7239,17 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>ForDqP</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency %</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Estimated percent of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
+          <t>Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7258,7 +7274,7 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>48.09</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7281,7 +7297,11 @@
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>x</t>
@@ -7291,17 +7311,17 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -7311,12 +7331,12 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>HUD, 2018</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -7326,19 +7346,11 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>48.09</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
-        </is>
-      </c>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7349,11 +7361,7 @@
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
           <t>x</t>
@@ -7363,42 +7371,42 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Estimated count of working population</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>3513856</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
@@ -7834,7 +7842,7 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>2010-06-10 00:00:00</t>
+          <t>6/10/2010</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
@@ -7900,7 +7908,7 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>2015-10-01 00:00:00</t>
+          <t>10/1/2015</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
@@ -8577,7 +8585,7 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>2010-07-01 00:00:00</t>
+          <t>7/1/2010</t>
         </is>
       </c>
       <c r="R115" t="inlineStr"/>
@@ -8637,7 +8645,7 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>2015-08-01 00:00:00</t>
+          <t>8/1/2015</t>
         </is>
       </c>
       <c r="R116" t="inlineStr"/>
@@ -8697,7 +8705,7 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>2014-05-01 00:00:00</t>
+          <t>5/1/2014</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
@@ -9257,7 +9265,7 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>2007-07-22 00:00:00</t>
+          <t>7/22/2007</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -9321,7 +9329,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>2011-08-01 00:00:00</t>
+          <t>8/1/2011</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -9385,7 +9393,7 @@
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>2012-01-01 00:00:00</t>
+          <t>1/1/2012</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -9449,7 +9457,7 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>2014-07-01 00:00:00</t>
+          <t>7/1/2014</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -9513,7 +9521,7 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>2007-07-22 00:00:00</t>
+          <t>7/22/2007</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10712,32 +10720,32 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>DrgRlDth</t>
+          <t>TotHcv</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Deaths from drug-related causes (2009-2018)</t>
+          <t>Yearly Hepatitis C cases (2013-2016)</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Total deaths from drug-related causes, 2009-2018</t>
+          <t>Mean total yearly Hepitatis C cases from 2013-2016</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_DrugDeaths.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HepC.md</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>CDC WONDER, 2009-2019</t>
+          <t>HepVu, 2017</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>United States CDC's Underlying Cause of Death, 2009-2019 dataset via CDC Wonder.</t>
+          <t>HepVu, 2017</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -10747,17 +10755,13 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>9691</t>
-        </is>
-      </c>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>County-level and other subnational data representing fewer than ten persons (0-9) are suppressed for year 1989 and later years, including our years of interest 2009-2018. Furthermore, rates may be considered "unreliable" when the death count is less than 20. For more information, see CDC.</t>
-        </is>
-      </c>
+          <t>54200</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr"/>
       <c r="S149" t="inlineStr">
         <is>
-          <t>This dataset includes data for the 48 contiguous U.S. states and Washington, D.C. It does not include Alaska, Hawaii, or the U.S. territories: Puerto Rico, Guam, American Samoa, Northern Mariana Islands, U.S. Virgin Islands.</t>
+          <t>Data included for Hepatitis C State and County Mortality is for 2014-2017, while Hepatitis C State Prevalence data are available for 2013-2016</t>
         </is>
       </c>
     </row>
@@ -10780,17 +10784,17 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>TotHcv</t>
+          <t>MlHcv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases (2013-2016)</t>
+          <t>Yearly Hepatitis C cases - Men (2013-2016)</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Mean total yearly Hepitatis C cases from 2013-2016</t>
+          <t>Mean yearly Hepatitis C cases in men from 2013-2016</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -10815,7 +10819,7 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>54200</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="R150" t="inlineStr"/>
@@ -10844,17 +10848,17 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>MlHcv</t>
+          <t>FmHcv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Men (2013-2016)</t>
+          <t>Yearly Hepatitis C cases - Women (2013-2016)</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in men from 2013-2016</t>
+          <t>Mean yearly Hepatitis C cases in women from 2013-2016</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -10879,7 +10883,7 @@
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>37500</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="R151" t="inlineStr"/>
@@ -10908,17 +10912,17 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>FmHcv</t>
+          <t>Un50Hcv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Women (2013-2016)</t>
+          <t>Yearly Hepatitis C cases - Under 50 years old (2013-2016)</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in women from 2013-2016</t>
+          <t>Mean yearly Hepatatis C cases in people under 50 years of age from 2013-2016</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -10943,7 +10947,7 @@
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>9400</t>
         </is>
       </c>
       <c r="R152" t="inlineStr"/>
@@ -10972,17 +10976,17 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Un50Hcv</t>
+          <t>A50_74Hcv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Under 50 years old (2013-2016)</t>
+          <t>Yearly Hepatitis C cases - 50 to 74 years old (2013-2016)</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatatis C cases in people under 50 years of age from 2013-2016</t>
+          <t>Mean yearly Hepatitis C cases in people between 50 to 74 years of age from 2013-2016</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -11007,7 +11011,7 @@
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>9400</t>
+          <t>43300</t>
         </is>
       </c>
       <c r="R153" t="inlineStr"/>
@@ -11036,17 +11040,17 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>A50_74Hcv</t>
+          <t>Ov75Hcv</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - 50 to 74 years old (2013-2016)</t>
+          <t>Yearly Hepatitis C cases - Over 75 years old (2013-2016)</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in people between 50 to 74 years of age from 2013-2016</t>
+          <t>Mean yearly Hepatitis C cases in people over 75 years of age from 2013-2016</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -11071,7 +11075,7 @@
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>43300</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="R154" t="inlineStr"/>
@@ -11100,17 +11104,17 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Ov75Hcv</t>
+          <t>BlkHcv</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Over 75 years old (2013-2016)</t>
+          <t>Yearly Hepatitis C cases - Black (2013-2016)</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in people over 75 years of age from 2013-2016</t>
+          <t>Mean yearly Hepatitis C cases in populations identified as non-hispanic Black alone across 2013-2016</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -11135,7 +11139,7 @@
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="R155" t="inlineStr"/>
@@ -11164,17 +11168,17 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>BlkHcv</t>
+          <t>NonBlkHcv</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Black (2013-2016)</t>
+          <t>Yearly Hepatitis C cases - non-Black (2013-2016)</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in populations identified as non-hispanic Black alone across 2013-2016</t>
+          <t>Mean yearly Hepatitis C cases in populations non-Black other race/ethnicity populations 2013-2016</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -11199,7 +11203,7 @@
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>5600</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="R156" t="inlineStr"/>
@@ -11228,17 +11232,17 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>NonBlkHcv</t>
+          <t>HcvD13</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - non-Black (2013-2016)</t>
+          <t>Hepatitis C Deaths (2013)</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in populations non-Black other race/ethnicity populations 2013-2016</t>
+          <t>Total Hepatitis C deaths in 2013</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -11258,12 +11262,12 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>592</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -11292,17 +11296,17 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>HcvD13</t>
+          <t>MlHcvD13</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths (2013)</t>
+          <t>Hepatitis C Deaths - Men (2013)</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Total Hepatitis C deaths in 2013</t>
+          <t>Hepatitis C deaths among men in 2013</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -11327,7 +11331,7 @@
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>417</t>
         </is>
       </c>
       <c r="R158" t="inlineStr"/>
@@ -11356,17 +11360,17 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>MlHcvD13</t>
+          <t>FlHcvD13</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (2013)</t>
+          <t>Hepatitis C Deaths - Women (2013)</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among men in 2013</t>
+          <t>Hepatitis C deaths among women in 2013</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -11391,7 +11395,7 @@
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>175</t>
         </is>
       </c>
       <c r="R159" t="inlineStr"/>
@@ -11420,17 +11424,17 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>FlHcvD13</t>
+          <t>AmInHcvD13</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (2013)</t>
+          <t>Hepatitis C Deaths - American Indian (2013)</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among women in 2013</t>
+          <t>Hepatitis C deaths among American Indian populations in 2013</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -11455,7 +11459,7 @@
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R160" t="inlineStr"/>
@@ -11484,17 +11488,17 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>AmInHcvD13</t>
+          <t>AsPiHcvD13</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (2013)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013)</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among American Indian populations in 2013</t>
+          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2013</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -11519,7 +11523,7 @@
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="R161" t="inlineStr"/>
@@ -11548,17 +11552,17 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>AsPiHcvD13</t>
+          <t>BlkHcvD13</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013)</t>
+          <t>Hepatitis C Deaths - Black (2013)</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2013</t>
+          <t>Hepatitis C deaths among Black population in 2013</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -11583,7 +11587,7 @@
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>48</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -11612,17 +11616,17 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>BlkHcvD13</t>
+          <t>HspHcvD13</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (2013)</t>
+          <t>Hepatitis C Deaths - Hispanic (2013)</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Black population in 2013</t>
+          <t>Hepatitis C deaths among hispanic populations in 2013</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -11647,7 +11651,7 @@
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R163" t="inlineStr"/>
@@ -11676,17 +11680,17 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>HspHcvD13</t>
+          <t>U50HcvD13</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (2013)</t>
+          <t>Hepatitis C Deaths - Under 50 years old (2013)</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among hispanic populations in 2013</t>
+          <t>Hepatitis C deaths in populations under 50 years of age in 2013</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -11711,7 +11715,7 @@
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R164" t="inlineStr"/>
@@ -11740,17 +11744,17 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>U50HcvD13</t>
+          <t>A50_74HcvD13</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Under 50 years old (2013)</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old (2013)</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths in populations under 50 years of age in 2013</t>
+          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2013</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -11775,7 +11779,7 @@
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>515</t>
         </is>
       </c>
       <c r="R165" t="inlineStr"/>
@@ -11804,17 +11808,17 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>A50_74HcvD13</t>
+          <t>O75HcvD13</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old (2013)</t>
+          <t>Hepatitis C Deaths - Over 75 years old (2013)</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2013</t>
+          <t>Hepatitis C deaths among populations over 75 years of age in 2013</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -11839,7 +11843,7 @@
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R166" t="inlineStr"/>
@@ -11868,17 +11872,17 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>O75HcvD13</t>
+          <t>HcvD14</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Over 75 years old (2013)</t>
+          <t>Hepatitis C Deaths (2014)</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations over 75 years of age in 2013</t>
+          <t>Total Hepatitis C deaths in 2014</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -11903,7 +11907,7 @@
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>644</t>
         </is>
       </c>
       <c r="R167" t="inlineStr"/>
@@ -11932,17 +11936,17 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>HcvD14</t>
+          <t>MlHcvD14</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths (2014)</t>
+          <t>Hepatitis C Deaths - Men (2014)</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Total Hepatitis C deaths in 2014</t>
+          <t>Hepatitis C deaths among men in 2014</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -11967,7 +11971,7 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>438</t>
         </is>
       </c>
       <c r="R168" t="inlineStr"/>
@@ -11996,17 +12000,17 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>MlHcvD14</t>
+          <t>FlHcvD14</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (2014)</t>
+          <t>Hepatitis C Deaths - Women (2014)</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among men in 2014</t>
+          <t>Hepatitis C deaths among women in 2014</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -12031,7 +12035,7 @@
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>206</t>
         </is>
       </c>
       <c r="R169" t="inlineStr"/>
@@ -12060,17 +12064,17 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>FlHcvD14</t>
+          <t>AmInHcvD14</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (2014)</t>
+          <t>Hepatitis C Deaths - American Indian (2014)</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among women in 2014</t>
+          <t>Hepatitis C deaths among American Indian populations in 2014</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -12095,7 +12099,7 @@
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R170" t="inlineStr"/>
@@ -12124,17 +12128,17 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>AmInHcvD14</t>
+          <t>AsPiHcvD14</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (2014)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2014)</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among American Indian populations in 2014</t>
+          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2014</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -12159,7 +12163,7 @@
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R171" t="inlineStr"/>
@@ -12188,17 +12192,17 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>AsPiHcvD14</t>
+          <t>BlkHcvD14</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2014)</t>
+          <t>Hepatitis C Deaths - Black (2014)</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2014</t>
+          <t>Hepatitis C deaths among Black population in 2014</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -12223,7 +12227,7 @@
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R172" t="inlineStr"/>
@@ -12252,17 +12256,17 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>BlkHcvD14</t>
+          <t>HspHcvD14</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (2014)</t>
+          <t>Hepatitis C Deaths - Hispanic (2014)</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Black population in 2014</t>
+          <t>Hepatitis C deaths among hispanic populations in 2014</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -12287,7 +12291,7 @@
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>41</t>
         </is>
       </c>
       <c r="R173" t="inlineStr"/>
@@ -12316,17 +12320,17 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>HspHcvD14</t>
+          <t>U50HcvD14</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (2014)</t>
+          <t>Hepatitis C Deaths - Under 50 years old (2014)</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among hispanic populations in 2014</t>
+          <t>Hepatitis C deaths in populations under 50 years of age in 2014</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -12351,7 +12355,7 @@
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R174" t="inlineStr"/>
@@ -12380,17 +12384,17 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>U50HcvD14</t>
+          <t>A50_74HcvD14</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Under 50 years old (2014)</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old (2014)</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths in populations under 50 years of age in 2014</t>
+          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2014</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -12415,7 +12419,7 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>546</t>
         </is>
       </c>
       <c r="R175" t="inlineStr"/>
@@ -12444,17 +12448,17 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>A50_74HcvD14</t>
+          <t>O75HcvD14</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old (2014)</t>
+          <t>Hepatitis C Deaths - Over 75 years old (2014)</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2014</t>
+          <t>Hepatitis C deaths among populations over 75 years of age in 2014</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -12479,7 +12483,7 @@
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R176" t="inlineStr"/>
@@ -12508,17 +12512,17 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>O75HcvD14</t>
+          <t>HcvD15</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Over 75 years old (2014)</t>
+          <t>Hepatitis C Deaths (2015)</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations over 75 years of age in 2014</t>
+          <t>Total Hepatitis C deaths in 2015</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -12543,7 +12547,7 @@
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>651</t>
         </is>
       </c>
       <c r="R177" t="inlineStr"/>
@@ -12572,17 +12576,17 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>HcvD15</t>
+          <t>MlHcvD15</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths (2015)</t>
+          <t>Hepatitis C Deaths - Men (2015)</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Total Hepatitis C deaths in 2015</t>
+          <t>Hepatitis C deaths among men in 2015</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -12607,7 +12611,7 @@
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>462</t>
         </is>
       </c>
       <c r="R178" t="inlineStr"/>
@@ -12636,17 +12640,17 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>MlHcvD15</t>
+          <t>FlHcvD15</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (2015)</t>
+          <t>Hepatitis C Deaths - Women (2015)</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among men in 2015</t>
+          <t>Hepatitis C deaths among women in 2015</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -12671,7 +12675,7 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>189</t>
         </is>
       </c>
       <c r="R179" t="inlineStr"/>
@@ -12700,17 +12704,17 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>FlHcvD15</t>
+          <t>AmInHcvD15</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (2015)</t>
+          <t>Hepatitis C Deaths - American Indian (2015)</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among women in 2015</t>
+          <t>Hepatitis C deaths among American Indian populations in 2015</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -12735,7 +12739,7 @@
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R180" t="inlineStr"/>
@@ -12764,17 +12768,17 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>AmInHcvD15</t>
+          <t>AsPiHcvD15</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (2015)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2015)</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among American Indian populations in 2015</t>
+          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2015</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -12799,7 +12803,7 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R181" t="inlineStr"/>
@@ -12828,17 +12832,17 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>AsPiHcvD15</t>
+          <t>BlkHcvD15</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2015)</t>
+          <t>Hepatitis C Deaths - Black (2015)</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2015</t>
+          <t>Hepatitis C deaths among Black population in 2015</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -12863,7 +12867,7 @@
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>48</t>
         </is>
       </c>
       <c r="R182" t="inlineStr"/>
@@ -12892,17 +12896,17 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>BlkHcvD15</t>
+          <t>HspHcvD15</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (2015)</t>
+          <t>Hepatitis C Deaths - Hispanic (2015)</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Black population in 2015</t>
+          <t>Hepatitis C deaths among hispanic populations in 2015</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -12927,7 +12931,7 @@
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>37</t>
         </is>
       </c>
       <c r="R183" t="inlineStr"/>
@@ -12956,17 +12960,17 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>HspHcvD15</t>
+          <t>U50HcvD15</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (2015)</t>
+          <t>Hepatitis C Deaths - Under 50 years old (2015)</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among hispanic populations in 2015</t>
+          <t>Hepatitis C deaths in populations under 50 years of age in 2015</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -12991,7 +12995,7 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R184" t="inlineStr"/>
@@ -13020,17 +13024,17 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>U50HcvD15</t>
+          <t>D50_74Hcv15</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Under 50 years old (2015)</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old (2015)</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths in populations under 50 years of age in 2015</t>
+          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2015</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -13055,7 +13059,7 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>568</t>
         </is>
       </c>
       <c r="R185" t="inlineStr"/>
@@ -13084,17 +13088,17 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>D50_74Hcv15</t>
+          <t>O75HcvD15</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old (2015)</t>
+          <t>Hepatitis C Deaths - Over 75 years old (2015)</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2015</t>
+          <t>Hepatitis C deaths among populations over 75 years of age in 2015</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -13119,7 +13123,7 @@
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R186" t="inlineStr"/>
@@ -13148,17 +13152,17 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>O75HcvD15</t>
+          <t>HcvD16</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Over 75 years old (2015)</t>
+          <t>Hepatitis C Deaths (2016)</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations over 75 years of age in 2015</t>
+          <t>Total Hepatitis C deaths in 2016</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -13183,7 +13187,7 @@
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>517</t>
         </is>
       </c>
       <c r="R187" t="inlineStr"/>
@@ -13212,17 +13216,17 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>HcvD16</t>
+          <t>MlHcvD16</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths (2016)</t>
+          <t>Hepatitis C Deaths - Men (2016)</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Total Hepatitis C deaths in 2016</t>
+          <t>Hepatitis C deaths among men in 2016</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -13247,7 +13251,7 @@
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>354</t>
         </is>
       </c>
       <c r="R188" t="inlineStr"/>
@@ -13276,17 +13280,17 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>MlHcvD16</t>
+          <t>FlHcvD16</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (2016)</t>
+          <t>Hepatitis C Deaths - Women (2016)</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among men in 2016</t>
+          <t>Hepatitis C deaths among women in 2016</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -13311,7 +13315,7 @@
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>163</t>
         </is>
       </c>
       <c r="R189" t="inlineStr"/>
@@ -13340,17 +13344,17 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>FlHcvD16</t>
+          <t>AmInHcvD16</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (2016)</t>
+          <t>Hepatitis C Deaths - American Indian (2016)</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among women in 2016</t>
+          <t>Hepatitis C deaths among American Indian populations in 2016</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -13375,7 +13379,7 @@
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R190" t="inlineStr"/>
@@ -13404,17 +13408,17 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>AmInHcvD16</t>
+          <t>AsPiHcvD16</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (2016)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2016)</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among American Indian populations in 2016</t>
+          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2016</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -13468,17 +13472,17 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>AsPiHcvD16</t>
+          <t>BlkHcvD16</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2016)</t>
+          <t>Hepatitis C Deaths - Black (2016)</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2016</t>
+          <t>Hepatitis C deaths among Black population in 2016</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -13503,7 +13507,7 @@
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R192" t="inlineStr"/>
@@ -13532,17 +13536,17 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>BlkHcvD16</t>
+          <t>HspHcvD16</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (2016)</t>
+          <t>Hepatitis C Deaths - Hispanic (2016)</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Black population in 2016</t>
+          <t>Hepatitis C deaths among hispanic populations in 2016</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -13567,7 +13571,7 @@
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R193" t="inlineStr"/>
@@ -13596,17 +13600,17 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>HspHcvD16</t>
+          <t>U50HcvD16</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (2016)</t>
+          <t>Hepatitis C Deaths - Under 50 years old (2016)</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among hispanic populations in 2016</t>
+          <t>Hepatitis C deaths in populations under 50 years of age in 2016</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -13631,7 +13635,7 @@
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R194" t="inlineStr"/>
@@ -13660,17 +13664,17 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>U50HcvD16</t>
+          <t>A50_74HcvD16</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Under 50 years old (2016)</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old (2016)</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths in populations under 50 years of age in 2016</t>
+          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2016</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -13695,7 +13699,7 @@
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>453</t>
         </is>
       </c>
       <c r="R195" t="inlineStr"/>
@@ -13724,17 +13728,17 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>A50_74HcvD16</t>
+          <t>O75HcvD16</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old (2016)</t>
+          <t>Hepatitis C Deaths - Over 75 years old (2016)</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2016</t>
+          <t>Hepatitis C deaths among populations over 75 years of age in 2016</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -13759,7 +13763,7 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R196" t="inlineStr"/>
@@ -13788,17 +13792,17 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>O75HcvD16</t>
+          <t>HcvD17</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Over 75 years old (2016)</t>
+          <t>Hepatitis C Deaths (2017)</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations over 75 years of age in 2016</t>
+          <t>Total Hepatitis C deaths in 2017</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -13823,7 +13827,7 @@
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>528</t>
         </is>
       </c>
       <c r="R197" t="inlineStr"/>
@@ -13852,17 +13856,17 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>HcvD17</t>
+          <t>MlHcvD17</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths (2017)</t>
+          <t>Hepatitis C Deaths - Men (2017)</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Total Hepatitis C deaths in 2017</t>
+          <t>Hepatitis C deaths among men in 2017</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -13887,7 +13891,7 @@
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>375</t>
         </is>
       </c>
       <c r="R198" t="inlineStr"/>
@@ -13916,17 +13920,17 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>MlHcvD17</t>
+          <t>FlHcvD17</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (2017)</t>
+          <t>Hepatitis C Deaths - Women (2017)</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among men in 2017</t>
+          <t>Hepatitis C deaths among women in 2017</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -13951,7 +13955,7 @@
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>153</t>
         </is>
       </c>
       <c r="R199" t="inlineStr"/>
@@ -13980,17 +13984,17 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>FlHcvD17</t>
+          <t>AmInHcvD17</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (2017)</t>
+          <t>Hepatitis C Deaths - American Indian (2017)</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among women in 2017</t>
+          <t>Hepatitis C deaths among American Indian populations in 2017</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -14015,7 +14019,7 @@
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R200" t="inlineStr"/>
@@ -14044,17 +14048,17 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>AmInHcvD17</t>
+          <t>AsPiHcvD17</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (2017)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2017)</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among American Indian populations in 2017</t>
+          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2017</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -14079,7 +14083,7 @@
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R201" t="inlineStr"/>
@@ -14108,17 +14112,17 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>AsPiHcvD17</t>
+          <t>BlkHcvD17</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2017)</t>
+          <t>Hepatitis C Deaths - Black (2017)</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2017</t>
+          <t>Hepatitis C deaths among Black population in 2017</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -14143,7 +14147,7 @@
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>39</t>
         </is>
       </c>
       <c r="R202" t="inlineStr"/>
@@ -14172,17 +14176,17 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>BlkHcvD17</t>
+          <t>HspHcvD17</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (2017)</t>
+          <t>Hepatitis C Deaths - Hispanic (2017)</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Black population in 2017</t>
+          <t>Hepatitis C deaths among hispanic populations in 2017</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -14207,7 +14211,7 @@
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R203" t="inlineStr"/>
@@ -14236,17 +14240,17 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>HspHcvD17</t>
+          <t>U50HcvD17</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (2017)</t>
+          <t>Hepatitis C Deaths - Under 50 years old (2017)</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among hispanic populations in 2017</t>
+          <t>Hepatitis C deaths in populations under 50 years of age in 2017</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -14271,7 +14275,7 @@
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R204" t="inlineStr"/>
@@ -14300,17 +14304,17 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>U50HcvD17</t>
+          <t>A50_74HcvD17</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Under 50 years old (2017)</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old (2017)</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths in populations under 50 years of age in 2017</t>
+          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2017</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -14335,7 +14339,7 @@
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>472</t>
         </is>
       </c>
       <c r="R205" t="inlineStr"/>
@@ -14364,17 +14368,17 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>A50_74HcvD17</t>
+          <t>O75HcvD17</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old (2017)</t>
+          <t>Hepatitis C Deaths - Over 75 years old (2016)</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2017</t>
+          <t>Hepatitis C deaths among populations over 75 years of age in 2017</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -14399,7 +14403,7 @@
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R206" t="inlineStr"/>
@@ -14428,17 +14432,17 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>O75HcvD17</t>
+          <t>AvHcvD</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Over 75 years old (2016)</t>
+          <t>Hepatitis C Deaths (2013 - 2017)</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations over 75 years of age in 2017</t>
+          <t>Mean total yearly Hepatitis C deaths from 2013-2017</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -14458,20 +14462,16 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>586.4</t>
         </is>
       </c>
       <c r="R207" t="inlineStr"/>
-      <c r="S207" t="inlineStr">
-        <is>
-          <t>Data included for Hepatitis C State and County Mortality is for 2014-2017, while Hepatitis C State Prevalence data are available for 2013-2016</t>
-        </is>
-      </c>
+      <c r="S207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -14492,17 +14492,17 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>AvHcvD</t>
+          <t>AvMlHcvD</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Men (2013 - 2017)</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Mean total yearly Hepatitis C deaths from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among men from 2013-2017</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -14527,7 +14527,7 @@
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>586.4</t>
+          <t>409.2</t>
         </is>
       </c>
       <c r="R208" t="inlineStr"/>
@@ -14552,17 +14552,17 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>AvMlHcvD</t>
+          <t>AvFlHcvD</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Women (2013 - 2017)</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among men from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among women from 2013-2017</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -14587,7 +14587,7 @@
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>409.2</t>
+          <t>177.2</t>
         </is>
       </c>
       <c r="R209" t="inlineStr"/>
@@ -14612,17 +14612,17 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>AvFlHcvD</t>
+          <t>AvAmInHcvD</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - American Indian (2013 - 2017)</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among women from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among American Indian population from 2013-2017</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>177.2</t>
+          <t>23.6</t>
         </is>
       </c>
       <c r="R210" t="inlineStr"/>
@@ -14672,17 +14672,17 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>AvAmInHcvD</t>
+          <t>AvAsPiHcvD</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013 - 2017)</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among American Indian population from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among Asian and Pacific Islanders population from 2013-2017</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -14707,7 +14707,7 @@
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>23.6</t>
+          <t>24.4</t>
         </is>
       </c>
       <c r="R211" t="inlineStr"/>
@@ -14732,17 +14732,17 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>AvAsPiHcvD</t>
+          <t>AvBlkHcvD</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Black (2013 - 2017)</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Asian and Pacific Islanders population from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among Black populations from 2013-2017</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -14767,7 +14767,7 @@
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="R212" t="inlineStr"/>
@@ -14792,17 +14792,17 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>AvBlkHcvD</t>
+          <t>AvHspHcvD</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Hispanic (2013 - 2017)</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Black populations from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among Hispanic populations from 2013-2017</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -14827,7 +14827,7 @@
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="R213" t="inlineStr"/>
@@ -14852,17 +14852,17 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>AvHspHcvD</t>
+          <t>AvU50HcvD</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Age Under 50 (2013 - 2017)</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Hispanic populations from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among people under 50 years of age from 2013-2017</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -14887,7 +14887,7 @@
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="R214" t="inlineStr"/>
@@ -14912,17 +14912,17 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>AvU50HcvD</t>
+          <t>Av50_74HcvD</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age Under 50 (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Age 50 to 74 (2013 - 2017)</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among people under 50 years of age from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among people between 50 and 74 years of age from 2013-2017</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -14947,7 +14947,7 @@
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>510.8</t>
         </is>
       </c>
       <c r="R215" t="inlineStr"/>
@@ -14972,17 +14972,17 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Av50_74HcvD</t>
+          <t>AvO75HcvD</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age 50 to 74 (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Age Over 75  (2013 - 2017)</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among people between 50 and 74 years of age from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among people over 75 years of age</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>510.8</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R216" t="inlineStr"/>
@@ -15032,32 +15032,32 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>AvO75HcvD</t>
+          <t>OpRxRt20</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age Over 75  (2013 - 2017)</t>
+          <t>Opioid Prescription Rate (2020)</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among people over 75 years of age</t>
+          <t>Opioid prescription rate in 2020</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HepC.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/OpioidIndicators.md</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>HepVu, 2017</t>
+          <t>HepVu, 2020</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>HepVu, 2017</t>
+          <t>HepVu, 2020</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
@@ -15067,7 +15067,7 @@
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="R217" t="inlineStr"/>
@@ -15092,17 +15092,17 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>OpRxRt20</t>
+          <t>PrMsuse20P</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Opioid Prescription Rate (2020)</t>
+          <t>% Self-Report Misuse of Prescription Pain Medication (2020)</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Opioid prescription rate in 2020</t>
+          <t>Percent of persons who self-report misusing prescription pain relief medication in 2020.</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -15127,7 +15127,7 @@
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="R218" t="inlineStr"/>
@@ -15152,17 +15152,17 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>PrMsuse20P</t>
+          <t>OdMortRt14</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>% Self-Report Misuse of Prescription Pain Medication (2020)</t>
+          <t>Opioid Mortality Rate (2014)</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Percent of persons who self-report misusing prescription pain relief medication in 2020.</t>
+          <t>Overdose mortality rate in 2014</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -15187,7 +15187,7 @@
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="R219" t="inlineStr"/>
@@ -15212,17 +15212,17 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>OdMortRt14</t>
+          <t>OdMortRt15</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2014)</t>
+          <t>Opioid Mortality Rate (2015)</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2014</t>
+          <t>Overdose mortality rate in 2015</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -15247,7 +15247,7 @@
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>14.7</t>
         </is>
       </c>
       <c r="R220" t="inlineStr"/>
@@ -15272,17 +15272,17 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>OdMortRt15</t>
+          <t>OdMortRt16</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2015)</t>
+          <t>Opioid Mortality Rate (2016)</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2015</t>
+          <t>Overdose mortality rate in 2016</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -15307,7 +15307,7 @@
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="R221" t="inlineStr"/>
@@ -15332,17 +15332,17 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>OdMortRt16</t>
+          <t>OdMortRt17</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2016)</t>
+          <t>Opioid Mortality Rate (2017)</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2016</t>
+          <t>Overdose mortality rate in 2017</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -15367,7 +15367,7 @@
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="R222" t="inlineStr"/>
@@ -15392,17 +15392,17 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>OdMortRt17</t>
+          <t>OdMortRt18</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2017)</t>
+          <t>Opioid Mortality Rate (2018)</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2017</t>
+          <t>Overdose mortality rate in 2018</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -15427,7 +15427,7 @@
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="R223" t="inlineStr"/>
@@ -15452,17 +15452,17 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>OdMortRt18</t>
+          <t>OdMortRt19</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2018)</t>
+          <t>Opioid Mortality Rate (2019)</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2018</t>
+          <t>Overdose mortality rate in 2019</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -15487,7 +15487,7 @@
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="R224" t="inlineStr"/>
@@ -15512,17 +15512,17 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>OdMortRt19</t>
+          <t>OdMortRt20</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2019)</t>
+          <t>Opioid Mortality Rate (2020)</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2019</t>
+          <t>Overdose mortality rate in 2020</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -15547,7 +15547,7 @@
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R225" t="inlineStr"/>
@@ -15572,17 +15572,17 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>OdMortRt20</t>
+          <t>OdMortRtAv</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2020)</t>
+          <t>Opioid Mortality Rate</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2020</t>
+          <t>Average overdose mortality rate from 2016-2020</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -15607,71 +15607,11 @@
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="R226" t="inlineStr"/>
       <c r="S226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>OdMortRtAv</t>
-        </is>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>Opioid Mortality Rate</t>
-        </is>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>Average overdose mortality rate from 2016-2020</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/OpioidIndicators.md</t>
-        </is>
-      </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t>HepVu, 2020</t>
-        </is>
-      </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>HepVu, 2020</t>
-        </is>
-      </c>
-      <c r="P227" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="Q227" t="inlineStr">
-        <is>
-          <t>20.58</t>
-        </is>
-      </c>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
